--- a/similarities/split_global/harmonic_similarity_timestamps_331.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_331.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,602 +484,640 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>isophonics_12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['D/5', 'A/3', 'D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:19.860000', '0:00:22.320000')]</t>
+          <t>('0:00:21.740249', '0:00:26.767369')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G', 'A:min', 'B:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'B:min', 'C#:min']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:54.230226', '0:00:58.990317')]</t>
+          <t>('0:00:12.120000', '0:00:18.460000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:23.089000', '0:00:32.130000')]</t>
+          <t>('0:00:15.600000', '0:00:27.520000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-60#t=54.230226']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=23.089']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:11.640000', '0:01:23.380000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+          <t>('0:00:09.200000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=71.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G'], ['C', 'G', 'C']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G'], ['F:maj/A', 'C:maj/G', 'F:maj']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:55.943242', '0:01:05.045464'), ('0:00:57.824058', '0:01:06.833401')]</t>
+          <t>('0:00:42.140000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:30.180000', '0:00:32.080000'), ('0:00:29.340000', '0:00:31.740000')]</t>
+          <t>('0:00:01.900000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=55.943242', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=57.824058']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=30.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=29.34']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=1.9</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:29.500000', '0:00:31.640000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
+          <t>('0:00:33.140000', '0:00:37.240000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=29.5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=33.14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:01:58.440000', '0:02:01.680000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['A:min', 'G#:dim7', 'A:min', 'G#:dim7']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:03:52.440000', '0:04:05.220000')]</t>
+          <t>('0:00:00.240000', '0:00:09.720000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:04:21.680000', '0:04:29.360000')]</t>
+          <t>('0:00:19.600000', '0:00:25.160000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=232.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=0.24</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=261.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=19.6</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A/3', 'E/5', 'A/3']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:21.440000')]</t>
+          <t>('0:00:08.240000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:14.168000', '0:00:18.573000')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+          <t>('0:01:46.460000', '0:02:05.020000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
+          <t>('0:00:27.820000', '0:00:37.720000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=106.46</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=27.82</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_57</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj6', 'G:maj6/3', 'D']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Db:maj6/5', 'Gb:maj6', 'Db/3']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:14.228594')]</t>
+          <t>('0:00:07.160000', '0:00:15.080000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:15.040000', '0:00:18.620000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-57#t=15.04']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E', 'E:7', 'F']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'D:7/C', 'D#:maj/A#']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:53.673000', '0:01:00.522000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:50.240000', '0:00:55.720000')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=53.673']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=50.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:01:02.460000')]</t>
+          <t>('0:00:58.300068', '0:01:03.443287')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:23.800000', '0:00:55.360000')]</t>
+          <t>('0:02:11.140000', '0:02:13.900000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=23.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=131.14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000'), ('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:12.921927', '0:00:21.908049')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:48'), ('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:00:43.260000', '0:00:45.660000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46', 'https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=12.921927</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1088,98 +1126,100 @@
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G#/C', 'D#', 'G#']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G', 'D/3', 'G']]</t>
+          <t>['G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:51.600000', '0:00:55.800000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:14.414000', '0:00:17.044000')]</t>
+          <t>('0:00:59.182426', '0:01:04.464965')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=51.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=14.414']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:49.402280', '0:00:59.224321')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=49.40228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
